--- a/3조 사용자 요구사항 정의서.xlsx
+++ b/3조 사용자 요구사항 정의서.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\EmotionArchive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044F917B-CFF4-4CEC-9B5B-50F82EA256CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83430946-F7C5-4CBF-AFEC-44C03A40852F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8976" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="148">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -388,10 +388,6 @@
   </si>
   <si>
     <t>MEM_05_LOGOUT_01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>무료 웹 에디터</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -709,10 +705,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>본문 내용을 작성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>제목</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -782,6 +774,60 @@
   </si>
   <si>
     <t>본문 내용을 작성(무료 웹 에디터 이용)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입된 정보를 입력해 로그인하면 일기쓰는 페이지로 이동한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화번호와 이메일을 통해 아이디를 찾는다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 후 로그인을 재설정한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화번호 이메일(아이디) 인증후 비밀번호를 만들어 가입한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화번호 인증한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일(아이디)을 입력해 가입한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEM_02_SIGNUP_01
+닉네임 인증</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>닉네임을 입력해 가입한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEM_02_SIGNUP_01
+생년월일 인증</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>생년월일을 입력해 가입한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 입력 후 프로필 이미지, 전화번호, 비밀번호, 닉네임 을 수정한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원탈퇴 할건지 물어보고 하면 처음 로그인하는 화면으로 돌아감</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그아웃을 하면 처음 로그인하는 화면으로 돌아감</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1510,18 +1556,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1537,19 +1583,43 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1573,29 +1643,17 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1621,24 +1679,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="보통" xfId="2" builtinId="28"/>
@@ -2884,14 +2928,14 @@
       <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.45">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
     </row>
     <row r="3" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="7"/>
@@ -2914,151 +2958,141 @@
       <c r="D4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="52"/>
+      <c r="F4" s="50"/>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
     </row>
     <row r="8" spans="1:6" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
     </row>
     <row r="14" spans="1:6" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
     </row>
     <row r="15" spans="1:6" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
     </row>
     <row r="17" spans="1:6" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
     </row>
     <row r="18" spans="1:6" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
     </row>
     <row r="19" spans="1:6" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
     </row>
     <row r="20" spans="1:6" s="2" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
@@ -3067,6 +3101,16 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3083,8 +3127,8 @@
   </sheetPr>
   <dimension ref="A1:P94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3097,34 +3141,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="56"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="64"/>
     </row>
     <row r="2" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
       <c r="F2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="59"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="67"/>
       <c r="L2" s="30"/>
       <c r="M2" s="30"/>
       <c r="N2" s="30"/>
@@ -3135,17 +3179,17 @@
       <c r="A3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
       <c r="F3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
       <c r="I3" s="17" t="s">
         <v>21</v>
       </c>
@@ -3157,16 +3201,16 @@
       <c r="P3" s="30"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
       <c r="L4" s="30"/>
       <c r="M4" s="30"/>
       <c r="N4" s="30"/>
@@ -3211,16 +3255,18 @@
       <c r="P5" s="30"/>
     </row>
     <row r="6" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="55" t="s">
         <v>63</v>
       </c>
       <c r="C6" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="40"/>
+      <c r="D6" s="12" t="s">
+        <v>135</v>
+      </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -3234,12 +3280,14 @@
       <c r="P6" s="30"/>
     </row>
     <row r="7" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="61"/>
-      <c r="B7" s="63"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="56"/>
       <c r="C7" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="40"/>
+      <c r="D7" s="12" t="s">
+        <v>136</v>
+      </c>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
@@ -3253,12 +3301,14 @@
       <c r="P7" s="30"/>
     </row>
     <row r="8" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="61"/>
-      <c r="B8" s="63"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="56"/>
       <c r="C8" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="41"/>
+      <c r="D8" s="31" t="s">
+        <v>137</v>
+      </c>
       <c r="E8" s="31"/>
       <c r="F8" s="31"/>
       <c r="G8" s="31"/>
@@ -3272,12 +3322,12 @@
       <c r="P8" s="30"/>
     </row>
     <row r="9" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="61"/>
-      <c r="B9" s="64"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="57"/>
       <c r="C9" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="42"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="32"/>
       <c r="F9" s="32"/>
       <c r="G9" s="32"/>
@@ -3294,7 +3344,7 @@
       <c r="A10" s="33"/>
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
-      <c r="D10" s="42"/>
+      <c r="D10" s="32"/>
       <c r="E10" s="32"/>
       <c r="F10" s="32"/>
       <c r="G10" s="32"/>
@@ -3308,16 +3358,18 @@
       <c r="P10" s="30"/>
     </row>
     <row r="11" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="65" t="s">
+      <c r="A11" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="58" t="s">
         <v>70</v>
       </c>
       <c r="C11" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="42"/>
+      <c r="D11" s="32" t="s">
+        <v>138</v>
+      </c>
       <c r="E11" s="32"/>
       <c r="F11" s="32"/>
       <c r="G11" s="32"/>
@@ -3331,12 +3383,14 @@
       <c r="P11" s="30"/>
     </row>
     <row r="12" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="66"/>
-      <c r="B12" s="66"/>
+      <c r="A12" s="59"/>
+      <c r="B12" s="59"/>
       <c r="C12" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="42"/>
+      <c r="D12" s="32" t="s">
+        <v>139</v>
+      </c>
       <c r="E12" s="32"/>
       <c r="F12" s="32"/>
       <c r="G12" s="32"/>
@@ -3350,12 +3404,14 @@
       <c r="P12" s="30"/>
     </row>
     <row r="13" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="67"/>
-      <c r="B13" s="67"/>
+      <c r="A13" s="59"/>
+      <c r="B13" s="59"/>
       <c r="C13" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="42"/>
+      <c r="D13" s="32" t="s">
+        <v>140</v>
+      </c>
       <c r="E13" s="32"/>
       <c r="F13" s="32"/>
       <c r="G13" s="32"/>
@@ -3369,10 +3425,14 @@
       <c r="P13" s="30"/>
     </row>
     <row r="14" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="42"/>
+      <c r="A14" s="59"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>142</v>
+      </c>
       <c r="E14" s="32"/>
       <c r="F14" s="32"/>
       <c r="G14" s="32"/>
@@ -3386,16 +3446,14 @@
       <c r="P14" s="30"/>
     </row>
     <row r="15" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="42"/>
+      <c r="A15" s="60"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="81" t="s">
+        <v>143</v>
+      </c>
+      <c r="D15" s="82" t="s">
+        <v>144</v>
+      </c>
       <c r="E15" s="32"/>
       <c r="F15" s="32"/>
       <c r="G15" s="32"/>
@@ -3404,10 +3462,10 @@
       <c r="J15" s="32"/>
     </row>
     <row r="16" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="42"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
       <c r="E16" s="32"/>
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
@@ -3417,15 +3475,17 @@
     </row>
     <row r="17" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" s="42"/>
+        <v>83</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>145</v>
+      </c>
       <c r="E17" s="32"/>
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
@@ -3437,7 +3497,7 @@
       <c r="A18" s="33"/>
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
-      <c r="D18" s="42"/>
+      <c r="D18" s="32"/>
       <c r="E18" s="32"/>
       <c r="F18" s="32"/>
       <c r="G18" s="32"/>
@@ -3447,15 +3507,17 @@
     </row>
     <row r="19" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19" s="42"/>
+        <v>84</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>146</v>
+      </c>
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
@@ -3464,10 +3526,10 @@
       <c r="J19" s="32"/>
     </row>
     <row r="20" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="42"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="32"/>
       <c r="E20" s="32"/>
       <c r="F20" s="32"/>
       <c r="G20" s="32"/>
@@ -3476,10 +3538,18 @@
       <c r="J20" s="32"/>
     </row>
     <row r="21" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="42"/>
+      <c r="A21" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>147</v>
+      </c>
       <c r="E21" s="32"/>
       <c r="F21" s="32"/>
       <c r="G21" s="32"/>
@@ -3497,8 +3567,8 @@
       <c r="C22" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="43" t="s">
-        <v>91</v>
+      <c r="D22" s="41" t="s">
+        <v>90</v>
       </c>
       <c r="E22" s="32"/>
       <c r="F22" s="32"/>
@@ -3511,10 +3581,10 @@
       <c r="A23" s="39"/>
       <c r="B23" s="39"/>
       <c r="C23" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="D23" s="42" t="s">
-        <v>90</v>
+        <v>86</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>89</v>
       </c>
       <c r="E23" s="32"/>
       <c r="F23" s="32"/>
@@ -3527,10 +3597,10 @@
       <c r="A24" s="39"/>
       <c r="B24" s="39"/>
       <c r="C24" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="40" t="s">
         <v>88</v>
-      </c>
-      <c r="D24" s="42" t="s">
-        <v>89</v>
       </c>
       <c r="E24" s="32"/>
       <c r="F24" s="32"/>
@@ -3543,10 +3613,10 @@
       <c r="A25" s="39"/>
       <c r="B25" s="39"/>
       <c r="C25" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="D25" s="43" t="s">
-        <v>99</v>
+        <v>91</v>
+      </c>
+      <c r="D25" s="41" t="s">
+        <v>98</v>
       </c>
       <c r="E25" s="32"/>
       <c r="F25" s="32"/>
@@ -3559,10 +3629,10 @@
       <c r="A26" s="39"/>
       <c r="B26" s="39"/>
       <c r="C26" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="41" t="s">
         <v>93</v>
-      </c>
-      <c r="D26" s="43" t="s">
-        <v>94</v>
       </c>
       <c r="E26" s="32"/>
       <c r="F26" s="32"/>
@@ -3575,10 +3645,10 @@
       <c r="A27" s="39"/>
       <c r="B27" s="39"/>
       <c r="C27" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="D27" s="42" t="s">
-        <v>107</v>
+        <v>94</v>
+      </c>
+      <c r="D27" s="40" t="s">
+        <v>106</v>
       </c>
       <c r="E27" s="32"/>
       <c r="F27" s="32"/>
@@ -3591,10 +3661,10 @@
       <c r="A28" s="39"/>
       <c r="B28" s="39"/>
       <c r="C28" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="D28" s="42" t="s">
-        <v>108</v>
+        <v>95</v>
+      </c>
+      <c r="D28" s="40" t="s">
+        <v>107</v>
       </c>
       <c r="E28" s="32"/>
       <c r="F28" s="32"/>
@@ -3607,10 +3677,10 @@
       <c r="A29" s="39"/>
       <c r="B29" s="39"/>
       <c r="C29" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="D29" s="42" t="s">
-        <v>109</v>
+        <v>96</v>
+      </c>
+      <c r="D29" s="40" t="s">
+        <v>108</v>
       </c>
       <c r="E29" s="32"/>
       <c r="F29" s="32"/>
@@ -3623,10 +3693,10 @@
       <c r="A30" s="39"/>
       <c r="B30" s="39"/>
       <c r="C30" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="D30" s="42" t="s">
-        <v>110</v>
+        <v>97</v>
+      </c>
+      <c r="D30" s="40" t="s">
+        <v>109</v>
       </c>
       <c r="E30" s="32"/>
       <c r="F30" s="32"/>
@@ -3639,10 +3709,10 @@
       <c r="A31" s="39"/>
       <c r="B31" s="39"/>
       <c r="C31" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="D31" s="43" t="s">
-        <v>111</v>
+        <v>99</v>
+      </c>
+      <c r="D31" s="41" t="s">
+        <v>110</v>
       </c>
       <c r="E31" s="32"/>
       <c r="F31" s="32"/>
@@ -3655,10 +3725,10 @@
       <c r="A32" s="39"/>
       <c r="B32" s="39"/>
       <c r="C32" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="D32" s="43" t="s">
-        <v>104</v>
+        <v>100</v>
+      </c>
+      <c r="D32" s="41" t="s">
+        <v>103</v>
       </c>
       <c r="E32" s="32"/>
       <c r="F32" s="32"/>
@@ -3671,10 +3741,10 @@
       <c r="A33" s="39"/>
       <c r="B33" s="39"/>
       <c r="C33" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="D33" s="42" t="s">
         <v>102</v>
+      </c>
+      <c r="D33" s="40" t="s">
+        <v>101</v>
       </c>
       <c r="E33" s="32"/>
       <c r="F33" s="32"/>
@@ -3687,10 +3757,10 @@
       <c r="A34" s="39"/>
       <c r="B34" s="39"/>
       <c r="C34" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" s="41" t="s">
         <v>105</v>
-      </c>
-      <c r="D34" s="43" t="s">
-        <v>106</v>
       </c>
       <c r="E34" s="32"/>
       <c r="F34" s="32"/>
@@ -3703,7 +3773,7 @@
       <c r="A35" s="39"/>
       <c r="B35" s="39"/>
       <c r="C35" s="37"/>
-      <c r="D35" s="42"/>
+      <c r="D35" s="40"/>
       <c r="E35" s="32"/>
       <c r="F35" s="32"/>
       <c r="G35" s="32"/>
@@ -3715,7 +3785,7 @@
       <c r="A36" s="33"/>
       <c r="B36" s="33"/>
       <c r="C36" s="34"/>
-      <c r="D36" s="42"/>
+      <c r="D36" s="40"/>
       <c r="E36" s="32"/>
       <c r="F36" s="32"/>
       <c r="G36" s="32"/>
@@ -3727,7 +3797,7 @@
       <c r="A37" s="33"/>
       <c r="B37" s="33"/>
       <c r="C37" s="33"/>
-      <c r="D37" s="42"/>
+      <c r="D37" s="40"/>
       <c r="E37" s="32"/>
       <c r="F37" s="32"/>
       <c r="G37" s="32"/>
@@ -3736,210 +3806,210 @@
       <c r="J37" s="32"/>
     </row>
     <row r="38" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="81" t="s">
+      <c r="A38" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="B38" s="81" t="s">
+      <c r="C38" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="C38" s="82" t="s">
+      <c r="D38" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="D38" s="81" t="s">
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42" t="s">
         <v>115</v>
-      </c>
-      <c r="E38" s="81"/>
-      <c r="F38" s="81"/>
-      <c r="G38" s="81" t="s">
-        <v>116</v>
       </c>
       <c r="H38" s="32"/>
       <c r="I38" s="32"/>
       <c r="J38" s="32"/>
     </row>
     <row r="39" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="81"/>
-      <c r="B39" s="81"/>
-      <c r="C39" s="81" t="s">
-        <v>117</v>
-      </c>
-      <c r="D39" s="81" t="s">
-        <v>136</v>
-      </c>
-      <c r="E39" s="81"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="81" t="s">
+      <c r="A39" s="42"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42" t="s">
         <v>116</v>
+      </c>
+      <c r="D39" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42" t="s">
+        <v>115</v>
       </c>
       <c r="H39" s="32"/>
       <c r="I39" s="32"/>
       <c r="J39" s="32"/>
     </row>
     <row r="40" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="81"/>
-      <c r="B40" s="81"/>
-      <c r="C40" s="82" t="s">
-        <v>119</v>
-      </c>
-      <c r="D40" s="81" t="s">
-        <v>120</v>
-      </c>
-      <c r="E40" s="81"/>
-      <c r="F40" s="81"/>
-      <c r="G40" s="81" t="s">
-        <v>116</v>
+      <c r="A40" s="42"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="D40" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42" t="s">
+        <v>115</v>
       </c>
       <c r="H40" s="32"/>
       <c r="I40" s="32"/>
       <c r="J40" s="32"/>
     </row>
     <row r="41" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="81"/>
-      <c r="B41" s="81"/>
-      <c r="C41" s="81"/>
-      <c r="D41" s="81"/>
-      <c r="E41" s="81"/>
-      <c r="F41" s="81"/>
-      <c r="G41" s="81"/>
+      <c r="A41" s="42"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
       <c r="H41" s="32"/>
       <c r="I41" s="32"/>
       <c r="J41" s="32"/>
     </row>
     <row r="42" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="81" t="s">
+      <c r="A42" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="B42" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="C42" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="B42" s="81" t="s">
+      <c r="D42" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="C42" s="82" t="s">
-        <v>123</v>
-      </c>
-      <c r="D42" s="81" t="s">
-        <v>124</v>
-      </c>
-      <c r="E42" s="81"/>
-      <c r="F42" s="81"/>
-      <c r="G42" s="81" t="s">
-        <v>116</v>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42" t="s">
+        <v>115</v>
       </c>
       <c r="H42" s="32"/>
       <c r="I42" s="32"/>
       <c r="J42" s="32"/>
     </row>
     <row r="43" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="81"/>
-      <c r="B43" s="81"/>
-      <c r="C43" s="82" t="s">
-        <v>125</v>
-      </c>
-      <c r="D43" s="81" t="s">
-        <v>126</v>
-      </c>
-      <c r="E43" s="81"/>
-      <c r="F43" s="81"/>
-      <c r="G43" s="81" t="s">
-        <v>116</v>
+      <c r="A43" s="42"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="D43" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42" t="s">
+        <v>115</v>
       </c>
       <c r="H43" s="32"/>
       <c r="I43" s="32"/>
       <c r="J43" s="32"/>
     </row>
     <row r="44" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="81"/>
-      <c r="B44" s="81"/>
-      <c r="C44" s="81"/>
-      <c r="D44" s="81"/>
-      <c r="E44" s="81"/>
-      <c r="F44" s="81"/>
-      <c r="G44" s="81"/>
+      <c r="A44" s="42"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
       <c r="H44" s="32"/>
       <c r="I44" s="32"/>
       <c r="J44" s="32"/>
     </row>
     <row r="45" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="81"/>
-      <c r="B45" s="81"/>
-      <c r="C45" s="81"/>
-      <c r="D45" s="81"/>
-      <c r="E45" s="81"/>
-      <c r="F45" s="81"/>
-      <c r="G45" s="81"/>
+      <c r="A45" s="42"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
       <c r="H45" s="32"/>
       <c r="I45" s="32"/>
       <c r="J45" s="32"/>
     </row>
     <row r="46" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="81" t="s">
+      <c r="A46" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="B46" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="C46" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="D46" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="B46" s="81" t="s">
-        <v>128</v>
-      </c>
-      <c r="C46" s="82" t="s">
-        <v>75</v>
-      </c>
-      <c r="D46" s="81" t="s">
-        <v>129</v>
-      </c>
-      <c r="E46" s="81"/>
-      <c r="F46" s="81"/>
-      <c r="G46" s="81" t="s">
-        <v>116</v>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42" t="s">
+        <v>115</v>
       </c>
       <c r="H46" s="32"/>
       <c r="I46" s="32"/>
       <c r="J46" s="32"/>
     </row>
     <row r="47" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="81"/>
-      <c r="B47" s="81"/>
-      <c r="C47" s="81" t="s">
-        <v>130</v>
-      </c>
-      <c r="D47" s="81" t="s">
-        <v>131</v>
-      </c>
-      <c r="E47" s="81"/>
-      <c r="F47" s="81"/>
-      <c r="G47" s="81" t="s">
-        <v>116</v>
+      <c r="A47" s="42"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="D47" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42" t="s">
+        <v>115</v>
       </c>
       <c r="H47" s="32"/>
       <c r="I47" s="32"/>
       <c r="J47" s="32"/>
     </row>
     <row r="48" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="81"/>
-      <c r="B48" s="81"/>
-      <c r="C48" s="81" t="s">
-        <v>132</v>
-      </c>
-      <c r="D48" s="81" t="s">
-        <v>133</v>
-      </c>
-      <c r="E48" s="81"/>
-      <c r="F48" s="81"/>
-      <c r="G48" s="81" t="s">
-        <v>116</v>
+      <c r="A48" s="42"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="D48" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="42" t="s">
+        <v>115</v>
       </c>
       <c r="H48" s="32"/>
       <c r="I48" s="32"/>
       <c r="J48" s="32"/>
     </row>
     <row r="49" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="81"/>
-      <c r="B49" s="81"/>
-      <c r="C49" s="81" t="s">
-        <v>134</v>
-      </c>
-      <c r="D49" s="81" t="s">
-        <v>135</v>
-      </c>
-      <c r="E49" s="81"/>
-      <c r="F49" s="81"/>
-      <c r="G49" s="81" t="s">
-        <v>116</v>
+      <c r="A49" s="42"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="D49" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="42" t="s">
+        <v>115</v>
       </c>
       <c r="H49" s="32"/>
       <c r="I49" s="32"/>
@@ -3949,7 +4019,7 @@
       <c r="A50" s="33"/>
       <c r="B50" s="33"/>
       <c r="C50" s="33"/>
-      <c r="D50" s="42"/>
+      <c r="D50" s="40"/>
       <c r="E50" s="32"/>
       <c r="F50" s="32"/>
       <c r="G50" s="32"/>
@@ -3961,7 +4031,7 @@
       <c r="A51" s="32"/>
       <c r="B51" s="32"/>
       <c r="C51" s="32"/>
-      <c r="D51" s="42"/>
+      <c r="D51" s="40"/>
       <c r="E51" s="32"/>
       <c r="F51" s="32"/>
       <c r="G51" s="32"/>
@@ -3973,7 +4043,7 @@
       <c r="A52" s="32"/>
       <c r="B52" s="32"/>
       <c r="C52" s="32"/>
-      <c r="D52" s="42"/>
+      <c r="D52" s="40"/>
       <c r="E52" s="32"/>
       <c r="F52" s="32"/>
       <c r="G52" s="32"/>
@@ -3985,7 +4055,7 @@
       <c r="A53" s="32"/>
       <c r="B53" s="32"/>
       <c r="C53" s="32"/>
-      <c r="D53" s="42"/>
+      <c r="D53" s="40"/>
       <c r="E53" s="32"/>
       <c r="F53" s="32"/>
       <c r="G53" s="32"/>
@@ -3997,7 +4067,7 @@
       <c r="A54" s="32"/>
       <c r="B54" s="32"/>
       <c r="C54" s="32"/>
-      <c r="D54" s="42"/>
+      <c r="D54" s="40"/>
       <c r="E54" s="32"/>
       <c r="F54" s="32"/>
       <c r="G54" s="32"/>
@@ -4009,7 +4079,7 @@
       <c r="A55" s="32"/>
       <c r="B55" s="32"/>
       <c r="C55" s="32"/>
-      <c r="D55" s="42"/>
+      <c r="D55" s="40"/>
       <c r="E55" s="32"/>
       <c r="F55" s="32"/>
       <c r="G55" s="32"/>
@@ -4021,7 +4091,7 @@
       <c r="A56" s="32"/>
       <c r="B56" s="32"/>
       <c r="C56" s="32"/>
-      <c r="D56" s="42"/>
+      <c r="D56" s="40"/>
       <c r="E56" s="32"/>
       <c r="F56" s="32"/>
       <c r="G56" s="32"/>
@@ -4033,7 +4103,7 @@
       <c r="A57" s="32"/>
       <c r="B57" s="32"/>
       <c r="C57" s="32"/>
-      <c r="D57" s="42"/>
+      <c r="D57" s="40"/>
       <c r="E57" s="32"/>
       <c r="F57" s="32"/>
       <c r="G57" s="32"/>
@@ -4045,7 +4115,7 @@
       <c r="A58" s="32"/>
       <c r="B58" s="32"/>
       <c r="C58" s="32"/>
-      <c r="D58" s="42"/>
+      <c r="D58" s="40"/>
       <c r="E58" s="32"/>
       <c r="F58" s="32"/>
       <c r="G58" s="32"/>
@@ -4057,7 +4127,7 @@
       <c r="A59" s="32"/>
       <c r="B59" s="32"/>
       <c r="C59" s="32"/>
-      <c r="D59" s="42"/>
+      <c r="D59" s="40"/>
       <c r="E59" s="32"/>
       <c r="F59" s="32"/>
       <c r="G59" s="32"/>
@@ -4069,7 +4139,7 @@
       <c r="A60" s="32"/>
       <c r="B60" s="32"/>
       <c r="C60" s="32"/>
-      <c r="D60" s="42"/>
+      <c r="D60" s="40"/>
       <c r="E60" s="32"/>
       <c r="F60" s="32"/>
       <c r="G60" s="32"/>
@@ -4081,7 +4151,7 @@
       <c r="A61" s="32"/>
       <c r="B61" s="32"/>
       <c r="C61" s="32"/>
-      <c r="D61" s="42"/>
+      <c r="D61" s="40"/>
       <c r="E61" s="32"/>
       <c r="F61" s="32"/>
       <c r="G61" s="32"/>
@@ -4093,7 +4163,7 @@
       <c r="A62" s="32"/>
       <c r="B62" s="32"/>
       <c r="C62" s="32"/>
-      <c r="D62" s="42"/>
+      <c r="D62" s="40"/>
       <c r="E62" s="32"/>
       <c r="F62" s="32"/>
       <c r="G62" s="32"/>
@@ -4105,7 +4175,7 @@
       <c r="A63" s="32"/>
       <c r="B63" s="32"/>
       <c r="C63" s="32"/>
-      <c r="D63" s="42"/>
+      <c r="D63" s="40"/>
       <c r="E63" s="32"/>
       <c r="F63" s="32"/>
       <c r="G63" s="32"/>
@@ -4117,7 +4187,7 @@
       <c r="A64" s="32"/>
       <c r="B64" s="32"/>
       <c r="C64" s="32"/>
-      <c r="D64" s="42"/>
+      <c r="D64" s="40"/>
       <c r="E64" s="32"/>
       <c r="F64" s="32"/>
       <c r="G64" s="32"/>
@@ -4129,7 +4199,7 @@
       <c r="A65" s="32"/>
       <c r="B65" s="32"/>
       <c r="C65" s="32"/>
-      <c r="D65" s="42"/>
+      <c r="D65" s="40"/>
       <c r="E65" s="32"/>
       <c r="F65" s="32"/>
       <c r="G65" s="32"/>
@@ -4141,7 +4211,7 @@
       <c r="A66" s="32"/>
       <c r="B66" s="32"/>
       <c r="C66" s="32"/>
-      <c r="D66" s="42"/>
+      <c r="D66" s="40"/>
       <c r="E66" s="32"/>
       <c r="F66" s="32"/>
       <c r="G66" s="32"/>
@@ -4153,7 +4223,7 @@
       <c r="A67" s="32"/>
       <c r="B67" s="32"/>
       <c r="C67" s="32"/>
-      <c r="D67" s="42"/>
+      <c r="D67" s="40"/>
       <c r="E67" s="32"/>
       <c r="F67" s="32"/>
       <c r="G67" s="32"/>
@@ -4165,7 +4235,7 @@
       <c r="A68" s="32"/>
       <c r="B68" s="32"/>
       <c r="C68" s="32"/>
-      <c r="D68" s="42"/>
+      <c r="D68" s="40"/>
       <c r="E68" s="32"/>
       <c r="F68" s="32"/>
       <c r="G68" s="32"/>
@@ -4177,7 +4247,7 @@
       <c r="A69" s="32"/>
       <c r="B69" s="32"/>
       <c r="C69" s="32"/>
-      <c r="D69" s="42"/>
+      <c r="D69" s="40"/>
       <c r="E69" s="32"/>
       <c r="F69" s="32"/>
       <c r="G69" s="32"/>
@@ -4189,7 +4259,7 @@
       <c r="A70" s="32"/>
       <c r="B70" s="32"/>
       <c r="C70" s="32"/>
-      <c r="D70" s="42"/>
+      <c r="D70" s="40"/>
       <c r="E70" s="32"/>
       <c r="F70" s="32"/>
       <c r="G70" s="32"/>
@@ -4201,7 +4271,7 @@
       <c r="A71" s="32"/>
       <c r="B71" s="32"/>
       <c r="C71" s="32"/>
-      <c r="D71" s="42"/>
+      <c r="D71" s="40"/>
       <c r="E71" s="32"/>
       <c r="F71" s="32"/>
       <c r="G71" s="32"/>
@@ -4213,7 +4283,7 @@
       <c r="A72" s="32"/>
       <c r="B72" s="32"/>
       <c r="C72" s="32"/>
-      <c r="D72" s="42"/>
+      <c r="D72" s="40"/>
       <c r="E72" s="32"/>
       <c r="F72" s="32"/>
       <c r="G72" s="32"/>
@@ -4225,7 +4295,7 @@
       <c r="A73" s="32"/>
       <c r="B73" s="32"/>
       <c r="C73" s="32"/>
-      <c r="D73" s="42"/>
+      <c r="D73" s="40"/>
       <c r="E73" s="32"/>
       <c r="F73" s="32"/>
       <c r="G73" s="32"/>
@@ -4237,7 +4307,7 @@
       <c r="A74" s="32"/>
       <c r="B74" s="32"/>
       <c r="C74" s="32"/>
-      <c r="D74" s="42"/>
+      <c r="D74" s="40"/>
       <c r="E74" s="32"/>
       <c r="F74" s="32"/>
       <c r="G74" s="32"/>
@@ -4249,7 +4319,7 @@
       <c r="A75" s="32"/>
       <c r="B75" s="32"/>
       <c r="C75" s="32"/>
-      <c r="D75" s="42"/>
+      <c r="D75" s="40"/>
       <c r="E75" s="32"/>
       <c r="F75" s="32"/>
       <c r="G75" s="32"/>
@@ -4261,7 +4331,7 @@
       <c r="A76" s="32"/>
       <c r="B76" s="32"/>
       <c r="C76" s="32"/>
-      <c r="D76" s="42"/>
+      <c r="D76" s="40"/>
       <c r="E76" s="32"/>
       <c r="F76" s="32"/>
       <c r="G76" s="32"/>
@@ -4273,7 +4343,7 @@
       <c r="A77" s="32"/>
       <c r="B77" s="32"/>
       <c r="C77" s="32"/>
-      <c r="D77" s="42"/>
+      <c r="D77" s="40"/>
       <c r="E77" s="32"/>
       <c r="F77" s="32"/>
       <c r="G77" s="32"/>
@@ -4285,7 +4355,7 @@
       <c r="A78" s="32"/>
       <c r="B78" s="32"/>
       <c r="C78" s="32"/>
-      <c r="D78" s="42"/>
+      <c r="D78" s="40"/>
       <c r="E78" s="32"/>
       <c r="F78" s="32"/>
       <c r="G78" s="32"/>
@@ -4297,7 +4367,7 @@
       <c r="A79" s="32"/>
       <c r="B79" s="32"/>
       <c r="C79" s="32"/>
-      <c r="D79" s="42"/>
+      <c r="D79" s="40"/>
       <c r="E79" s="32"/>
       <c r="F79" s="32"/>
       <c r="G79" s="32"/>
@@ -4309,7 +4379,7 @@
       <c r="A80" s="32"/>
       <c r="B80" s="32"/>
       <c r="C80" s="32"/>
-      <c r="D80" s="42"/>
+      <c r="D80" s="40"/>
       <c r="E80" s="32"/>
       <c r="F80" s="32"/>
       <c r="G80" s="32"/>
@@ -4321,7 +4391,7 @@
       <c r="A81" s="32"/>
       <c r="B81" s="32"/>
       <c r="C81" s="32"/>
-      <c r="D81" s="42"/>
+      <c r="D81" s="40"/>
       <c r="E81" s="32"/>
       <c r="F81" s="32"/>
       <c r="G81" s="32"/>
@@ -4333,7 +4403,7 @@
       <c r="A82" s="32"/>
       <c r="B82" s="32"/>
       <c r="C82" s="32"/>
-      <c r="D82" s="42"/>
+      <c r="D82" s="40"/>
       <c r="E82" s="32"/>
       <c r="F82" s="32"/>
       <c r="G82" s="32"/>
@@ -4345,7 +4415,7 @@
       <c r="A83" s="32"/>
       <c r="B83" s="32"/>
       <c r="C83" s="32"/>
-      <c r="D83" s="42"/>
+      <c r="D83" s="40"/>
       <c r="E83" s="32"/>
       <c r="F83" s="32"/>
       <c r="G83" s="32"/>
@@ -4357,7 +4427,7 @@
       <c r="A84" s="32"/>
       <c r="B84" s="32"/>
       <c r="C84" s="32"/>
-      <c r="D84" s="42"/>
+      <c r="D84" s="40"/>
       <c r="E84" s="32"/>
       <c r="F84" s="32"/>
       <c r="G84" s="32"/>
@@ -4369,7 +4439,7 @@
       <c r="A85" s="32"/>
       <c r="B85" s="32"/>
       <c r="C85" s="32"/>
-      <c r="D85" s="42"/>
+      <c r="D85" s="40"/>
       <c r="E85" s="32"/>
       <c r="F85" s="32"/>
       <c r="G85" s="32"/>
@@ -4381,7 +4451,7 @@
       <c r="A86" s="32"/>
       <c r="B86" s="32"/>
       <c r="C86" s="32"/>
-      <c r="D86" s="42"/>
+      <c r="D86" s="40"/>
       <c r="E86" s="32"/>
       <c r="F86" s="32"/>
       <c r="G86" s="32"/>
@@ -4393,7 +4463,7 @@
       <c r="A87" s="32"/>
       <c r="B87" s="32"/>
       <c r="C87" s="32"/>
-      <c r="D87" s="42"/>
+      <c r="D87" s="40"/>
       <c r="E87" s="32"/>
       <c r="F87" s="32"/>
       <c r="G87" s="32"/>
@@ -4405,7 +4475,7 @@
       <c r="A88" s="32"/>
       <c r="B88" s="32"/>
       <c r="C88" s="32"/>
-      <c r="D88" s="42"/>
+      <c r="D88" s="40"/>
       <c r="E88" s="32"/>
       <c r="F88" s="32"/>
       <c r="G88" s="32"/>
@@ -4417,7 +4487,7 @@
       <c r="A89" s="32"/>
       <c r="B89" s="32"/>
       <c r="C89" s="32"/>
-      <c r="D89" s="42"/>
+      <c r="D89" s="40"/>
       <c r="E89" s="32"/>
       <c r="F89" s="32"/>
       <c r="G89" s="32"/>
@@ -4429,7 +4499,7 @@
       <c r="A90" s="32"/>
       <c r="B90" s="32"/>
       <c r="C90" s="32"/>
-      <c r="D90" s="42"/>
+      <c r="D90" s="40"/>
       <c r="E90" s="32"/>
       <c r="F90" s="32"/>
       <c r="G90" s="32"/>
@@ -4441,7 +4511,7 @@
       <c r="A91" s="32"/>
       <c r="B91" s="32"/>
       <c r="C91" s="32"/>
-      <c r="D91" s="42"/>
+      <c r="D91" s="40"/>
       <c r="E91" s="32"/>
       <c r="F91" s="32"/>
       <c r="G91" s="32"/>
@@ -4453,7 +4523,7 @@
       <c r="A92" s="32"/>
       <c r="B92" s="32"/>
       <c r="C92" s="32"/>
-      <c r="D92" s="42"/>
+      <c r="D92" s="40"/>
       <c r="E92" s="32"/>
       <c r="F92" s="32"/>
       <c r="G92" s="32"/>
@@ -4465,7 +4535,7 @@
       <c r="A93" s="32"/>
       <c r="B93" s="32"/>
       <c r="C93" s="32"/>
-      <c r="D93" s="42"/>
+      <c r="D93" s="40"/>
       <c r="E93" s="32"/>
       <c r="F93" s="32"/>
       <c r="G93" s="32"/>
@@ -4477,7 +4547,7 @@
       <c r="A94" s="32"/>
       <c r="B94" s="32"/>
       <c r="C94" s="32"/>
-      <c r="D94" s="42"/>
+      <c r="D94" s="40"/>
       <c r="E94" s="32"/>
       <c r="F94" s="32"/>
       <c r="G94" s="32"/>
@@ -4487,16 +4557,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A4:J4"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="B11:B15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4522,435 +4592,435 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="72"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="76"/>
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="73"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="75"/>
+      <c r="A2" s="77"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="79"/>
     </row>
     <row r="3" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:10" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="A4" s="76"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
+      <c r="A4" s="80"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
     </row>
     <row r="5" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
     </row>
     <row r="6" spans="1:10" s="28" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
     </row>
     <row r="7" spans="1:10" s="28" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="78"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
     </row>
     <row r="8" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
     </row>
     <row r="9" spans="1:10" s="28" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
     </row>
     <row r="10" spans="1:10" s="28" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="78"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="78"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="72"/>
     </row>
     <row r="11" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="69"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
     </row>
     <row r="12" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="79" t="s">
+      <c r="A12" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="79"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
     </row>
     <row r="13" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="79" t="s">
+      <c r="A13" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
     </row>
     <row r="14" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="79" t="s">
+      <c r="A14" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="79"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
     </row>
     <row r="15" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="79" t="s">
+      <c r="A15" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="79"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
     </row>
     <row r="16" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="79" t="s">
+      <c r="A16" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="79"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="79"/>
-      <c r="J16" s="79"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
     </row>
     <row r="17" spans="1:10" s="28" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="77" t="s">
+      <c r="A17" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="77"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="77"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
     </row>
     <row r="18" spans="1:10" s="28" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="78" t="s">
+      <c r="A18" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="78"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="78"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
     </row>
     <row r="19" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="79" t="s">
+      <c r="A19" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="79"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="79"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
     </row>
     <row r="20" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="79" t="s">
+      <c r="A20" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="79"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="79"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
     </row>
     <row r="21" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="79" t="s">
+      <c r="A21" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="79"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79"/>
-      <c r="J21" s="79"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
     </row>
     <row r="22" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="79" t="s">
+      <c r="A22" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="79"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="79"/>
-      <c r="J22" s="79"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
     </row>
     <row r="23" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="79" t="s">
+      <c r="A23" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="79"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="79"/>
-      <c r="I23" s="79"/>
-      <c r="J23" s="79"/>
+      <c r="B23" s="70"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
     </row>
     <row r="24" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="79" t="s">
+      <c r="A24" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="79"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="79"/>
-      <c r="J24" s="79"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
     </row>
     <row r="25" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="79" t="s">
+      <c r="A25" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="79"/>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="79"/>
-      <c r="I25" s="79"/>
-      <c r="J25" s="79"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
     </row>
     <row r="26" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="79" t="s">
+      <c r="A26" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="79"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="79"/>
-      <c r="I26" s="79"/>
-      <c r="J26" s="79"/>
+      <c r="B26" s="70"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
     </row>
     <row r="27" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="79" t="s">
+      <c r="A27" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="79"/>
-      <c r="C27" s="79"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="79"/>
-      <c r="I27" s="79"/>
-      <c r="J27" s="79"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
     </row>
     <row r="28" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="79" t="s">
+      <c r="A28" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="79"/>
-      <c r="C28" s="79"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="79"/>
-      <c r="I28" s="79"/>
-      <c r="J28" s="79"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
     </row>
     <row r="29" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="79" t="s">
+      <c r="A29" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="79"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="79"/>
-      <c r="I29" s="79"/>
-      <c r="J29" s="79"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
     </row>
     <row r="30" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="79" t="s">
+      <c r="A30" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="79"/>
-      <c r="C30" s="79"/>
-      <c r="D30" s="79"/>
-      <c r="E30" s="79"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="79"/>
-      <c r="I30" s="79"/>
-      <c r="J30" s="79"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="70"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="70"/>
     </row>
     <row r="31" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="79" t="s">
+      <c r="A31" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="79"/>
-      <c r="C31" s="79"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="79"/>
-      <c r="G31" s="79"/>
-      <c r="H31" s="79"/>
-      <c r="I31" s="79"/>
-      <c r="J31" s="79"/>
+      <c r="B31" s="70"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="70"/>
+      <c r="H31" s="70"/>
+      <c r="I31" s="70"/>
+      <c r="J31" s="70"/>
     </row>
     <row r="32" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="79" t="s">
+      <c r="A32" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="79"/>
-      <c r="C32" s="79"/>
-      <c r="D32" s="79"/>
-      <c r="E32" s="79"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="79"/>
-      <c r="H32" s="79"/>
-      <c r="I32" s="79"/>
-      <c r="J32" s="79"/>
+      <c r="B32" s="70"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="70"/>
+      <c r="J32" s="70"/>
     </row>
     <row r="33" spans="1:10" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A33" s="29"/>
@@ -4983,569 +5053,613 @@
       <c r="A42" s="29"/>
     </row>
     <row r="43" spans="1:10" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="A43" s="80"/>
-      <c r="B43" s="80"/>
-      <c r="C43" s="80"/>
-      <c r="D43" s="80"/>
-      <c r="E43" s="80"/>
-      <c r="F43" s="80"/>
-      <c r="G43" s="80"/>
-      <c r="H43" s="80"/>
-      <c r="I43" s="80"/>
-      <c r="J43" s="80"/>
+      <c r="A43" s="69"/>
+      <c r="B43" s="69"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="69"/>
+      <c r="F43" s="69"/>
+      <c r="G43" s="69"/>
+      <c r="H43" s="69"/>
+      <c r="I43" s="69"/>
+      <c r="J43" s="69"/>
     </row>
     <row r="44" spans="1:10" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="A44" s="80"/>
-      <c r="B44" s="80"/>
-      <c r="C44" s="80"/>
-      <c r="D44" s="80"/>
-      <c r="E44" s="80"/>
-      <c r="F44" s="80"/>
-      <c r="G44" s="80"/>
-      <c r="H44" s="80"/>
-      <c r="I44" s="80"/>
-      <c r="J44" s="80"/>
+      <c r="A44" s="69"/>
+      <c r="B44" s="69"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="69"/>
+      <c r="F44" s="69"/>
+      <c r="G44" s="69"/>
+      <c r="H44" s="69"/>
+      <c r="I44" s="69"/>
+      <c r="J44" s="69"/>
     </row>
     <row r="45" spans="1:10" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="A45" s="80"/>
-      <c r="B45" s="80"/>
-      <c r="C45" s="80"/>
-      <c r="D45" s="80"/>
-      <c r="E45" s="80"/>
-      <c r="F45" s="80"/>
-      <c r="G45" s="80"/>
-      <c r="H45" s="80"/>
-      <c r="I45" s="80"/>
-      <c r="J45" s="80"/>
+      <c r="A45" s="69"/>
+      <c r="B45" s="69"/>
+      <c r="C45" s="69"/>
+      <c r="D45" s="69"/>
+      <c r="E45" s="69"/>
+      <c r="F45" s="69"/>
+      <c r="G45" s="69"/>
+      <c r="H45" s="69"/>
+      <c r="I45" s="69"/>
+      <c r="J45" s="69"/>
     </row>
     <row r="46" spans="1:10" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="A46" s="80"/>
-      <c r="B46" s="80"/>
-      <c r="C46" s="80"/>
-      <c r="D46" s="80"/>
-      <c r="E46" s="80"/>
-      <c r="F46" s="80"/>
-      <c r="G46" s="80"/>
-      <c r="H46" s="80"/>
-      <c r="I46" s="80"/>
-      <c r="J46" s="80"/>
+      <c r="A46" s="69"/>
+      <c r="B46" s="69"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="69"/>
+      <c r="F46" s="69"/>
+      <c r="G46" s="69"/>
+      <c r="H46" s="69"/>
+      <c r="I46" s="69"/>
+      <c r="J46" s="69"/>
     </row>
     <row r="47" spans="1:10" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="A47" s="80"/>
-      <c r="B47" s="80"/>
-      <c r="C47" s="80"/>
-      <c r="D47" s="80"/>
-      <c r="E47" s="80"/>
-      <c r="F47" s="80"/>
-      <c r="G47" s="80"/>
-      <c r="H47" s="80"/>
-      <c r="I47" s="80"/>
-      <c r="J47" s="80"/>
+      <c r="A47" s="69"/>
+      <c r="B47" s="69"/>
+      <c r="C47" s="69"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="69"/>
+      <c r="F47" s="69"/>
+      <c r="G47" s="69"/>
+      <c r="H47" s="69"/>
+      <c r="I47" s="69"/>
+      <c r="J47" s="69"/>
     </row>
     <row r="48" spans="1:10" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="A48" s="80"/>
-      <c r="B48" s="80"/>
-      <c r="C48" s="80"/>
-      <c r="D48" s="80"/>
-      <c r="E48" s="80"/>
-      <c r="F48" s="80"/>
-      <c r="G48" s="80"/>
-      <c r="H48" s="80"/>
-      <c r="I48" s="80"/>
-      <c r="J48" s="80"/>
+      <c r="A48" s="69"/>
+      <c r="B48" s="69"/>
+      <c r="C48" s="69"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="69"/>
+      <c r="G48" s="69"/>
+      <c r="H48" s="69"/>
+      <c r="I48" s="69"/>
+      <c r="J48" s="69"/>
     </row>
     <row r="49" spans="1:10" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="A49" s="80"/>
-      <c r="B49" s="80"/>
-      <c r="C49" s="80"/>
-      <c r="D49" s="80"/>
-      <c r="E49" s="80"/>
-      <c r="F49" s="80"/>
-      <c r="G49" s="80"/>
-      <c r="H49" s="80"/>
-      <c r="I49" s="80"/>
-      <c r="J49" s="80"/>
+      <c r="A49" s="69"/>
+      <c r="B49" s="69"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="69"/>
+      <c r="F49" s="69"/>
+      <c r="G49" s="69"/>
+      <c r="H49" s="69"/>
+      <c r="I49" s="69"/>
+      <c r="J49" s="69"/>
     </row>
     <row r="50" spans="1:10" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="A50" s="80"/>
-      <c r="B50" s="80"/>
-      <c r="C50" s="80"/>
-      <c r="D50" s="80"/>
-      <c r="E50" s="80"/>
-      <c r="F50" s="80"/>
-      <c r="G50" s="80"/>
-      <c r="H50" s="80"/>
-      <c r="I50" s="80"/>
-      <c r="J50" s="80"/>
+      <c r="A50" s="69"/>
+      <c r="B50" s="69"/>
+      <c r="C50" s="69"/>
+      <c r="D50" s="69"/>
+      <c r="E50" s="69"/>
+      <c r="F50" s="69"/>
+      <c r="G50" s="69"/>
+      <c r="H50" s="69"/>
+      <c r="I50" s="69"/>
+      <c r="J50" s="69"/>
     </row>
     <row r="51" spans="1:10" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="A51" s="80"/>
-      <c r="B51" s="80"/>
-      <c r="C51" s="80"/>
-      <c r="D51" s="80"/>
-      <c r="E51" s="80"/>
-      <c r="F51" s="80"/>
-      <c r="G51" s="80"/>
-      <c r="H51" s="80"/>
-      <c r="I51" s="80"/>
-      <c r="J51" s="80"/>
+      <c r="A51" s="69"/>
+      <c r="B51" s="69"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="69"/>
+      <c r="E51" s="69"/>
+      <c r="F51" s="69"/>
+      <c r="G51" s="69"/>
+      <c r="H51" s="69"/>
+      <c r="I51" s="69"/>
+      <c r="J51" s="69"/>
     </row>
     <row r="52" spans="1:10" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="A52" s="80"/>
-      <c r="B52" s="80"/>
-      <c r="C52" s="80"/>
-      <c r="D52" s="80"/>
-      <c r="E52" s="80"/>
-      <c r="F52" s="80"/>
-      <c r="G52" s="80"/>
-      <c r="H52" s="80"/>
-      <c r="I52" s="80"/>
-      <c r="J52" s="80"/>
+      <c r="A52" s="69"/>
+      <c r="B52" s="69"/>
+      <c r="C52" s="69"/>
+      <c r="D52" s="69"/>
+      <c r="E52" s="69"/>
+      <c r="F52" s="69"/>
+      <c r="G52" s="69"/>
+      <c r="H52" s="69"/>
+      <c r="I52" s="69"/>
+      <c r="J52" s="69"/>
     </row>
     <row r="53" spans="1:10" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="A53" s="80"/>
-      <c r="B53" s="80"/>
-      <c r="C53" s="80"/>
-      <c r="D53" s="80"/>
-      <c r="E53" s="80"/>
-      <c r="F53" s="80"/>
-      <c r="G53" s="80"/>
-      <c r="H53" s="80"/>
-      <c r="I53" s="80"/>
-      <c r="J53" s="80"/>
+      <c r="A53" s="69"/>
+      <c r="B53" s="69"/>
+      <c r="C53" s="69"/>
+      <c r="D53" s="69"/>
+      <c r="E53" s="69"/>
+      <c r="F53" s="69"/>
+      <c r="G53" s="69"/>
+      <c r="H53" s="69"/>
+      <c r="I53" s="69"/>
+      <c r="J53" s="69"/>
     </row>
     <row r="54" spans="1:10" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="A54" s="80"/>
-      <c r="B54" s="80"/>
-      <c r="C54" s="80"/>
-      <c r="D54" s="80"/>
-      <c r="E54" s="80"/>
-      <c r="F54" s="80"/>
-      <c r="G54" s="80"/>
-      <c r="H54" s="80"/>
-      <c r="I54" s="80"/>
-      <c r="J54" s="80"/>
+      <c r="A54" s="69"/>
+      <c r="B54" s="69"/>
+      <c r="C54" s="69"/>
+      <c r="D54" s="69"/>
+      <c r="E54" s="69"/>
+      <c r="F54" s="69"/>
+      <c r="G54" s="69"/>
+      <c r="H54" s="69"/>
+      <c r="I54" s="69"/>
+      <c r="J54" s="69"/>
     </row>
     <row r="55" spans="1:10" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="A55" s="80"/>
-      <c r="B55" s="80"/>
-      <c r="C55" s="80"/>
-      <c r="D55" s="80"/>
-      <c r="E55" s="80"/>
-      <c r="F55" s="80"/>
-      <c r="G55" s="80"/>
-      <c r="H55" s="80"/>
-      <c r="I55" s="80"/>
-      <c r="J55" s="80"/>
+      <c r="A55" s="69"/>
+      <c r="B55" s="69"/>
+      <c r="C55" s="69"/>
+      <c r="D55" s="69"/>
+      <c r="E55" s="69"/>
+      <c r="F55" s="69"/>
+      <c r="G55" s="69"/>
+      <c r="H55" s="69"/>
+      <c r="I55" s="69"/>
+      <c r="J55" s="69"/>
     </row>
     <row r="56" spans="1:10" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="A56" s="80"/>
-      <c r="B56" s="80"/>
-      <c r="C56" s="80"/>
-      <c r="D56" s="80"/>
-      <c r="E56" s="80"/>
-      <c r="F56" s="80"/>
-      <c r="G56" s="80"/>
-      <c r="H56" s="80"/>
-      <c r="I56" s="80"/>
-      <c r="J56" s="80"/>
+      <c r="A56" s="69"/>
+      <c r="B56" s="69"/>
+      <c r="C56" s="69"/>
+      <c r="D56" s="69"/>
+      <c r="E56" s="69"/>
+      <c r="F56" s="69"/>
+      <c r="G56" s="69"/>
+      <c r="H56" s="69"/>
+      <c r="I56" s="69"/>
+      <c r="J56" s="69"/>
     </row>
     <row r="57" spans="1:10" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="A57" s="80"/>
-      <c r="B57" s="80"/>
-      <c r="C57" s="80"/>
-      <c r="D57" s="80"/>
-      <c r="E57" s="80"/>
-      <c r="F57" s="80"/>
-      <c r="G57" s="80"/>
-      <c r="H57" s="80"/>
-      <c r="I57" s="80"/>
-      <c r="J57" s="80"/>
+      <c r="A57" s="69"/>
+      <c r="B57" s="69"/>
+      <c r="C57" s="69"/>
+      <c r="D57" s="69"/>
+      <c r="E57" s="69"/>
+      <c r="F57" s="69"/>
+      <c r="G57" s="69"/>
+      <c r="H57" s="69"/>
+      <c r="I57" s="69"/>
+      <c r="J57" s="69"/>
     </row>
     <row r="58" spans="1:10" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="A58" s="80"/>
-      <c r="B58" s="80"/>
-      <c r="C58" s="80"/>
-      <c r="D58" s="80"/>
-      <c r="E58" s="80"/>
-      <c r="F58" s="80"/>
-      <c r="G58" s="80"/>
-      <c r="H58" s="80"/>
-      <c r="I58" s="80"/>
-      <c r="J58" s="80"/>
+      <c r="A58" s="69"/>
+      <c r="B58" s="69"/>
+      <c r="C58" s="69"/>
+      <c r="D58" s="69"/>
+      <c r="E58" s="69"/>
+      <c r="F58" s="69"/>
+      <c r="G58" s="69"/>
+      <c r="H58" s="69"/>
+      <c r="I58" s="69"/>
+      <c r="J58" s="69"/>
     </row>
     <row r="59" spans="1:10" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="A59" s="80"/>
-      <c r="B59" s="80"/>
-      <c r="C59" s="80"/>
-      <c r="D59" s="80"/>
-      <c r="E59" s="80"/>
-      <c r="F59" s="80"/>
-      <c r="G59" s="80"/>
-      <c r="H59" s="80"/>
-      <c r="I59" s="80"/>
-      <c r="J59" s="80"/>
+      <c r="A59" s="69"/>
+      <c r="B59" s="69"/>
+      <c r="C59" s="69"/>
+      <c r="D59" s="69"/>
+      <c r="E59" s="69"/>
+      <c r="F59" s="69"/>
+      <c r="G59" s="69"/>
+      <c r="H59" s="69"/>
+      <c r="I59" s="69"/>
+      <c r="J59" s="69"/>
     </row>
     <row r="60" spans="1:10" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="A60" s="80"/>
-      <c r="B60" s="80"/>
-      <c r="C60" s="80"/>
-      <c r="D60" s="80"/>
-      <c r="E60" s="80"/>
-      <c r="F60" s="80"/>
-      <c r="G60" s="80"/>
-      <c r="H60" s="80"/>
-      <c r="I60" s="80"/>
-      <c r="J60" s="80"/>
+      <c r="A60" s="69"/>
+      <c r="B60" s="69"/>
+      <c r="C60" s="69"/>
+      <c r="D60" s="69"/>
+      <c r="E60" s="69"/>
+      <c r="F60" s="69"/>
+      <c r="G60" s="69"/>
+      <c r="H60" s="69"/>
+      <c r="I60" s="69"/>
+      <c r="J60" s="69"/>
     </row>
     <row r="61" spans="1:10" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="A61" s="80"/>
-      <c r="B61" s="80"/>
-      <c r="C61" s="80"/>
-      <c r="D61" s="80"/>
-      <c r="E61" s="80"/>
-      <c r="F61" s="80"/>
-      <c r="G61" s="80"/>
-      <c r="H61" s="80"/>
-      <c r="I61" s="80"/>
-      <c r="J61" s="80"/>
+      <c r="A61" s="69"/>
+      <c r="B61" s="69"/>
+      <c r="C61" s="69"/>
+      <c r="D61" s="69"/>
+      <c r="E61" s="69"/>
+      <c r="F61" s="69"/>
+      <c r="G61" s="69"/>
+      <c r="H61" s="69"/>
+      <c r="I61" s="69"/>
+      <c r="J61" s="69"/>
     </row>
     <row r="62" spans="1:10" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="A62" s="80"/>
-      <c r="B62" s="80"/>
-      <c r="C62" s="80"/>
-      <c r="D62" s="80"/>
-      <c r="E62" s="80"/>
-      <c r="F62" s="80"/>
-      <c r="G62" s="80"/>
-      <c r="H62" s="80"/>
-      <c r="I62" s="80"/>
-      <c r="J62" s="80"/>
+      <c r="A62" s="69"/>
+      <c r="B62" s="69"/>
+      <c r="C62" s="69"/>
+      <c r="D62" s="69"/>
+      <c r="E62" s="69"/>
+      <c r="F62" s="69"/>
+      <c r="G62" s="69"/>
+      <c r="H62" s="69"/>
+      <c r="I62" s="69"/>
+      <c r="J62" s="69"/>
     </row>
     <row r="63" spans="1:10" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="A63" s="80"/>
-      <c r="B63" s="80"/>
-      <c r="C63" s="80"/>
-      <c r="D63" s="80"/>
-      <c r="E63" s="80"/>
-      <c r="F63" s="80"/>
-      <c r="G63" s="80"/>
-      <c r="H63" s="80"/>
-      <c r="I63" s="80"/>
-      <c r="J63" s="80"/>
+      <c r="A63" s="69"/>
+      <c r="B63" s="69"/>
+      <c r="C63" s="69"/>
+      <c r="D63" s="69"/>
+      <c r="E63" s="69"/>
+      <c r="F63" s="69"/>
+      <c r="G63" s="69"/>
+      <c r="H63" s="69"/>
+      <c r="I63" s="69"/>
+      <c r="J63" s="69"/>
     </row>
     <row r="64" spans="1:10" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="A64" s="80"/>
-      <c r="B64" s="80"/>
-      <c r="C64" s="80"/>
-      <c r="D64" s="80"/>
-      <c r="E64" s="80"/>
-      <c r="F64" s="80"/>
-      <c r="G64" s="80"/>
-      <c r="H64" s="80"/>
-      <c r="I64" s="80"/>
-      <c r="J64" s="80"/>
+      <c r="A64" s="69"/>
+      <c r="B64" s="69"/>
+      <c r="C64" s="69"/>
+      <c r="D64" s="69"/>
+      <c r="E64" s="69"/>
+      <c r="F64" s="69"/>
+      <c r="G64" s="69"/>
+      <c r="H64" s="69"/>
+      <c r="I64" s="69"/>
+      <c r="J64" s="69"/>
     </row>
     <row r="65" spans="1:10" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="A65" s="80"/>
-      <c r="B65" s="80"/>
-      <c r="C65" s="80"/>
-      <c r="D65" s="80"/>
-      <c r="E65" s="80"/>
-      <c r="F65" s="80"/>
-      <c r="G65" s="80"/>
-      <c r="H65" s="80"/>
-      <c r="I65" s="80"/>
-      <c r="J65" s="80"/>
+      <c r="A65" s="69"/>
+      <c r="B65" s="69"/>
+      <c r="C65" s="69"/>
+      <c r="D65" s="69"/>
+      <c r="E65" s="69"/>
+      <c r="F65" s="69"/>
+      <c r="G65" s="69"/>
+      <c r="H65" s="69"/>
+      <c r="I65" s="69"/>
+      <c r="J65" s="69"/>
     </row>
     <row r="66" spans="1:10" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="A66" s="80"/>
-      <c r="B66" s="80"/>
-      <c r="C66" s="80"/>
-      <c r="D66" s="80"/>
-      <c r="E66" s="80"/>
-      <c r="F66" s="80"/>
-      <c r="G66" s="80"/>
-      <c r="H66" s="80"/>
-      <c r="I66" s="80"/>
-      <c r="J66" s="80"/>
+      <c r="A66" s="69"/>
+      <c r="B66" s="69"/>
+      <c r="C66" s="69"/>
+      <c r="D66" s="69"/>
+      <c r="E66" s="69"/>
+      <c r="F66" s="69"/>
+      <c r="G66" s="69"/>
+      <c r="H66" s="69"/>
+      <c r="I66" s="69"/>
+      <c r="J66" s="69"/>
     </row>
     <row r="67" spans="1:10" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="A67" s="80"/>
-      <c r="B67" s="80"/>
-      <c r="C67" s="80"/>
-      <c r="D67" s="80"/>
-      <c r="E67" s="80"/>
-      <c r="F67" s="80"/>
-      <c r="G67" s="80"/>
-      <c r="H67" s="80"/>
-      <c r="I67" s="80"/>
-      <c r="J67" s="80"/>
+      <c r="A67" s="69"/>
+      <c r="B67" s="69"/>
+      <c r="C67" s="69"/>
+      <c r="D67" s="69"/>
+      <c r="E67" s="69"/>
+      <c r="F67" s="69"/>
+      <c r="G67" s="69"/>
+      <c r="H67" s="69"/>
+      <c r="I67" s="69"/>
+      <c r="J67" s="69"/>
     </row>
     <row r="68" spans="1:10" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="A68" s="80"/>
-      <c r="B68" s="80"/>
-      <c r="C68" s="80"/>
-      <c r="D68" s="80"/>
-      <c r="E68" s="80"/>
-      <c r="F68" s="80"/>
-      <c r="G68" s="80"/>
-      <c r="H68" s="80"/>
-      <c r="I68" s="80"/>
-      <c r="J68" s="80"/>
+      <c r="A68" s="69"/>
+      <c r="B68" s="69"/>
+      <c r="C68" s="69"/>
+      <c r="D68" s="69"/>
+      <c r="E68" s="69"/>
+      <c r="F68" s="69"/>
+      <c r="G68" s="69"/>
+      <c r="H68" s="69"/>
+      <c r="I68" s="69"/>
+      <c r="J68" s="69"/>
     </row>
     <row r="69" spans="1:10" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="A69" s="80"/>
-      <c r="B69" s="80"/>
-      <c r="C69" s="80"/>
-      <c r="D69" s="80"/>
-      <c r="E69" s="80"/>
-      <c r="F69" s="80"/>
-      <c r="G69" s="80"/>
-      <c r="H69" s="80"/>
-      <c r="I69" s="80"/>
-      <c r="J69" s="80"/>
+      <c r="A69" s="69"/>
+      <c r="B69" s="69"/>
+      <c r="C69" s="69"/>
+      <c r="D69" s="69"/>
+      <c r="E69" s="69"/>
+      <c r="F69" s="69"/>
+      <c r="G69" s="69"/>
+      <c r="H69" s="69"/>
+      <c r="I69" s="69"/>
+      <c r="J69" s="69"/>
     </row>
     <row r="70" spans="1:10" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="A70" s="80"/>
-      <c r="B70" s="80"/>
-      <c r="C70" s="80"/>
-      <c r="D70" s="80"/>
-      <c r="E70" s="80"/>
-      <c r="F70" s="80"/>
-      <c r="G70" s="80"/>
-      <c r="H70" s="80"/>
-      <c r="I70" s="80"/>
-      <c r="J70" s="80"/>
+      <c r="A70" s="69"/>
+      <c r="B70" s="69"/>
+      <c r="C70" s="69"/>
+      <c r="D70" s="69"/>
+      <c r="E70" s="69"/>
+      <c r="F70" s="69"/>
+      <c r="G70" s="69"/>
+      <c r="H70" s="69"/>
+      <c r="I70" s="69"/>
+      <c r="J70" s="69"/>
     </row>
     <row r="71" spans="1:10" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="A71" s="80"/>
-      <c r="B71" s="80"/>
-      <c r="C71" s="80"/>
-      <c r="D71" s="80"/>
-      <c r="E71" s="80"/>
-      <c r="F71" s="80"/>
-      <c r="G71" s="80"/>
-      <c r="H71" s="80"/>
-      <c r="I71" s="80"/>
-      <c r="J71" s="80"/>
+      <c r="A71" s="69"/>
+      <c r="B71" s="69"/>
+      <c r="C71" s="69"/>
+      <c r="D71" s="69"/>
+      <c r="E71" s="69"/>
+      <c r="F71" s="69"/>
+      <c r="G71" s="69"/>
+      <c r="H71" s="69"/>
+      <c r="I71" s="69"/>
+      <c r="J71" s="69"/>
     </row>
     <row r="72" spans="1:10" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="A72" s="80"/>
-      <c r="B72" s="80"/>
-      <c r="C72" s="80"/>
-      <c r="D72" s="80"/>
-      <c r="E72" s="80"/>
-      <c r="F72" s="80"/>
-      <c r="G72" s="80"/>
-      <c r="H72" s="80"/>
-      <c r="I72" s="80"/>
-      <c r="J72" s="80"/>
+      <c r="A72" s="69"/>
+      <c r="B72" s="69"/>
+      <c r="C72" s="69"/>
+      <c r="D72" s="69"/>
+      <c r="E72" s="69"/>
+      <c r="F72" s="69"/>
+      <c r="G72" s="69"/>
+      <c r="H72" s="69"/>
+      <c r="I72" s="69"/>
+      <c r="J72" s="69"/>
     </row>
     <row r="73" spans="1:10" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="A73" s="80"/>
-      <c r="B73" s="80"/>
-      <c r="C73" s="80"/>
-      <c r="D73" s="80"/>
-      <c r="E73" s="80"/>
-      <c r="F73" s="80"/>
-      <c r="G73" s="80"/>
-      <c r="H73" s="80"/>
-      <c r="I73" s="80"/>
-      <c r="J73" s="80"/>
+      <c r="A73" s="69"/>
+      <c r="B73" s="69"/>
+      <c r="C73" s="69"/>
+      <c r="D73" s="69"/>
+      <c r="E73" s="69"/>
+      <c r="F73" s="69"/>
+      <c r="G73" s="69"/>
+      <c r="H73" s="69"/>
+      <c r="I73" s="69"/>
+      <c r="J73" s="69"/>
     </row>
     <row r="74" spans="1:10" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="A74" s="80"/>
-      <c r="B74" s="80"/>
-      <c r="C74" s="80"/>
-      <c r="D74" s="80"/>
-      <c r="E74" s="80"/>
-      <c r="F74" s="80"/>
-      <c r="G74" s="80"/>
-      <c r="H74" s="80"/>
-      <c r="I74" s="80"/>
-      <c r="J74" s="80"/>
+      <c r="A74" s="69"/>
+      <c r="B74" s="69"/>
+      <c r="C74" s="69"/>
+      <c r="D74" s="69"/>
+      <c r="E74" s="69"/>
+      <c r="F74" s="69"/>
+      <c r="G74" s="69"/>
+      <c r="H74" s="69"/>
+      <c r="I74" s="69"/>
+      <c r="J74" s="69"/>
     </row>
     <row r="75" spans="1:10" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="A75" s="80"/>
-      <c r="B75" s="80"/>
-      <c r="C75" s="80"/>
-      <c r="D75" s="80"/>
-      <c r="E75" s="80"/>
-      <c r="F75" s="80"/>
-      <c r="G75" s="80"/>
-      <c r="H75" s="80"/>
-      <c r="I75" s="80"/>
-      <c r="J75" s="80"/>
+      <c r="A75" s="69"/>
+      <c r="B75" s="69"/>
+      <c r="C75" s="69"/>
+      <c r="D75" s="69"/>
+      <c r="E75" s="69"/>
+      <c r="F75" s="69"/>
+      <c r="G75" s="69"/>
+      <c r="H75" s="69"/>
+      <c r="I75" s="69"/>
+      <c r="J75" s="69"/>
     </row>
     <row r="76" spans="1:10" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="A76" s="80"/>
-      <c r="B76" s="80"/>
-      <c r="C76" s="80"/>
-      <c r="D76" s="80"/>
-      <c r="E76" s="80"/>
-      <c r="F76" s="80"/>
-      <c r="G76" s="80"/>
-      <c r="H76" s="80"/>
-      <c r="I76" s="80"/>
-      <c r="J76" s="80"/>
+      <c r="A76" s="69"/>
+      <c r="B76" s="69"/>
+      <c r="C76" s="69"/>
+      <c r="D76" s="69"/>
+      <c r="E76" s="69"/>
+      <c r="F76" s="69"/>
+      <c r="G76" s="69"/>
+      <c r="H76" s="69"/>
+      <c r="I76" s="69"/>
+      <c r="J76" s="69"/>
     </row>
     <row r="77" spans="1:10" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="A77" s="80"/>
-      <c r="B77" s="80"/>
-      <c r="C77" s="80"/>
-      <c r="D77" s="80"/>
-      <c r="E77" s="80"/>
-      <c r="F77" s="80"/>
-      <c r="G77" s="80"/>
-      <c r="H77" s="80"/>
-      <c r="I77" s="80"/>
-      <c r="J77" s="80"/>
+      <c r="A77" s="69"/>
+      <c r="B77" s="69"/>
+      <c r="C77" s="69"/>
+      <c r="D77" s="69"/>
+      <c r="E77" s="69"/>
+      <c r="F77" s="69"/>
+      <c r="G77" s="69"/>
+      <c r="H77" s="69"/>
+      <c r="I77" s="69"/>
+      <c r="J77" s="69"/>
     </row>
     <row r="78" spans="1:10" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="A78" s="80"/>
-      <c r="B78" s="80"/>
-      <c r="C78" s="80"/>
-      <c r="D78" s="80"/>
-      <c r="E78" s="80"/>
-      <c r="F78" s="80"/>
-      <c r="G78" s="80"/>
-      <c r="H78" s="80"/>
-      <c r="I78" s="80"/>
-      <c r="J78" s="80"/>
+      <c r="A78" s="69"/>
+      <c r="B78" s="69"/>
+      <c r="C78" s="69"/>
+      <c r="D78" s="69"/>
+      <c r="E78" s="69"/>
+      <c r="F78" s="69"/>
+      <c r="G78" s="69"/>
+      <c r="H78" s="69"/>
+      <c r="I78" s="69"/>
+      <c r="J78" s="69"/>
     </row>
     <row r="79" spans="1:10" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="A79" s="80"/>
-      <c r="B79" s="80"/>
-      <c r="C79" s="80"/>
-      <c r="D79" s="80"/>
-      <c r="E79" s="80"/>
-      <c r="F79" s="80"/>
-      <c r="G79" s="80"/>
-      <c r="H79" s="80"/>
-      <c r="I79" s="80"/>
-      <c r="J79" s="80"/>
+      <c r="A79" s="69"/>
+      <c r="B79" s="69"/>
+      <c r="C79" s="69"/>
+      <c r="D79" s="69"/>
+      <c r="E79" s="69"/>
+      <c r="F79" s="69"/>
+      <c r="G79" s="69"/>
+      <c r="H79" s="69"/>
+      <c r="I79" s="69"/>
+      <c r="J79" s="69"/>
     </row>
     <row r="80" spans="1:10" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="A80" s="80"/>
-      <c r="B80" s="80"/>
-      <c r="C80" s="80"/>
-      <c r="D80" s="80"/>
-      <c r="E80" s="80"/>
-      <c r="F80" s="80"/>
-      <c r="G80" s="80"/>
-      <c r="H80" s="80"/>
-      <c r="I80" s="80"/>
-      <c r="J80" s="80"/>
+      <c r="A80" s="69"/>
+      <c r="B80" s="69"/>
+      <c r="C80" s="69"/>
+      <c r="D80" s="69"/>
+      <c r="E80" s="69"/>
+      <c r="F80" s="69"/>
+      <c r="G80" s="69"/>
+      <c r="H80" s="69"/>
+      <c r="I80" s="69"/>
+      <c r="J80" s="69"/>
     </row>
     <row r="81" spans="1:10" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="A81" s="80"/>
-      <c r="B81" s="80"/>
-      <c r="C81" s="80"/>
-      <c r="D81" s="80"/>
-      <c r="E81" s="80"/>
-      <c r="F81" s="80"/>
-      <c r="G81" s="80"/>
-      <c r="H81" s="80"/>
-      <c r="I81" s="80"/>
-      <c r="J81" s="80"/>
+      <c r="A81" s="69"/>
+      <c r="B81" s="69"/>
+      <c r="C81" s="69"/>
+      <c r="D81" s="69"/>
+      <c r="E81" s="69"/>
+      <c r="F81" s="69"/>
+      <c r="G81" s="69"/>
+      <c r="H81" s="69"/>
+      <c r="I81" s="69"/>
+      <c r="J81" s="69"/>
     </row>
     <row r="82" spans="1:10" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="A82" s="80"/>
-      <c r="B82" s="80"/>
-      <c r="C82" s="80"/>
-      <c r="D82" s="80"/>
-      <c r="E82" s="80"/>
-      <c r="F82" s="80"/>
-      <c r="G82" s="80"/>
-      <c r="H82" s="80"/>
-      <c r="I82" s="80"/>
-      <c r="J82" s="80"/>
+      <c r="A82" s="69"/>
+      <c r="B82" s="69"/>
+      <c r="C82" s="69"/>
+      <c r="D82" s="69"/>
+      <c r="E82" s="69"/>
+      <c r="F82" s="69"/>
+      <c r="G82" s="69"/>
+      <c r="H82" s="69"/>
+      <c r="I82" s="69"/>
+      <c r="J82" s="69"/>
     </row>
     <row r="83" spans="1:10" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="A83" s="80"/>
-      <c r="B83" s="80"/>
-      <c r="C83" s="80"/>
-      <c r="D83" s="80"/>
-      <c r="E83" s="80"/>
-      <c r="F83" s="80"/>
-      <c r="G83" s="80"/>
-      <c r="H83" s="80"/>
-      <c r="I83" s="80"/>
-      <c r="J83" s="80"/>
+      <c r="A83" s="69"/>
+      <c r="B83" s="69"/>
+      <c r="C83" s="69"/>
+      <c r="D83" s="69"/>
+      <c r="E83" s="69"/>
+      <c r="F83" s="69"/>
+      <c r="G83" s="69"/>
+      <c r="H83" s="69"/>
+      <c r="I83" s="69"/>
+      <c r="J83" s="69"/>
     </row>
     <row r="84" spans="1:10" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="A84" s="80"/>
-      <c r="B84" s="80"/>
-      <c r="C84" s="80"/>
-      <c r="D84" s="80"/>
-      <c r="E84" s="80"/>
-      <c r="F84" s="80"/>
-      <c r="G84" s="80"/>
-      <c r="H84" s="80"/>
-      <c r="I84" s="80"/>
-      <c r="J84" s="80"/>
+      <c r="A84" s="69"/>
+      <c r="B84" s="69"/>
+      <c r="C84" s="69"/>
+      <c r="D84" s="69"/>
+      <c r="E84" s="69"/>
+      <c r="F84" s="69"/>
+      <c r="G84" s="69"/>
+      <c r="H84" s="69"/>
+      <c r="I84" s="69"/>
+      <c r="J84" s="69"/>
     </row>
     <row r="85" spans="1:10" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="A85" s="80"/>
-      <c r="B85" s="80"/>
-      <c r="C85" s="80"/>
-      <c r="D85" s="80"/>
-      <c r="E85" s="80"/>
-      <c r="F85" s="80"/>
-      <c r="G85" s="80"/>
-      <c r="H85" s="80"/>
-      <c r="I85" s="80"/>
-      <c r="J85" s="80"/>
+      <c r="A85" s="69"/>
+      <c r="B85" s="69"/>
+      <c r="C85" s="69"/>
+      <c r="D85" s="69"/>
+      <c r="E85" s="69"/>
+      <c r="F85" s="69"/>
+      <c r="G85" s="69"/>
+      <c r="H85" s="69"/>
+      <c r="I85" s="69"/>
+      <c r="J85" s="69"/>
     </row>
     <row r="86" spans="1:10" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="A86" s="80"/>
-      <c r="B86" s="80"/>
-      <c r="C86" s="80"/>
-      <c r="D86" s="80"/>
-      <c r="E86" s="80"/>
-      <c r="F86" s="80"/>
-      <c r="G86" s="80"/>
-      <c r="H86" s="80"/>
-      <c r="I86" s="80"/>
-      <c r="J86" s="80"/>
+      <c r="A86" s="69"/>
+      <c r="B86" s="69"/>
+      <c r="C86" s="69"/>
+      <c r="D86" s="69"/>
+      <c r="E86" s="69"/>
+      <c r="F86" s="69"/>
+      <c r="G86" s="69"/>
+      <c r="H86" s="69"/>
+      <c r="I86" s="69"/>
+      <c r="J86" s="69"/>
     </row>
     <row r="87" spans="1:10" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="A87" s="80"/>
-      <c r="B87" s="80"/>
-      <c r="C87" s="80"/>
-      <c r="D87" s="80"/>
-      <c r="E87" s="80"/>
-      <c r="F87" s="80"/>
-      <c r="G87" s="80"/>
-      <c r="H87" s="80"/>
-      <c r="I87" s="80"/>
-      <c r="J87" s="80"/>
+      <c r="A87" s="69"/>
+      <c r="B87" s="69"/>
+      <c r="C87" s="69"/>
+      <c r="D87" s="69"/>
+      <c r="E87" s="69"/>
+      <c r="F87" s="69"/>
+      <c r="G87" s="69"/>
+      <c r="H87" s="69"/>
+      <c r="I87" s="69"/>
+      <c r="J87" s="69"/>
     </row>
     <row r="88" spans="1:10" s="28" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="A88" s="80"/>
-      <c r="B88" s="80"/>
-      <c r="C88" s="80"/>
-      <c r="D88" s="80"/>
-      <c r="E88" s="80"/>
-      <c r="F88" s="80"/>
-      <c r="G88" s="80"/>
-      <c r="H88" s="80"/>
-      <c r="I88" s="80"/>
-      <c r="J88" s="80"/>
+      <c r="A88" s="69"/>
+      <c r="B88" s="69"/>
+      <c r="C88" s="69"/>
+      <c r="D88" s="69"/>
+      <c r="E88" s="69"/>
+      <c r="F88" s="69"/>
+      <c r="G88" s="69"/>
+      <c r="H88" s="69"/>
+      <c r="I88" s="69"/>
+      <c r="J88" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="A85:J85"/>
-    <mergeCell ref="A86:J86"/>
-    <mergeCell ref="A87:J87"/>
-    <mergeCell ref="A88:J88"/>
-    <mergeCell ref="A79:J79"/>
-    <mergeCell ref="A80:J80"/>
-    <mergeCell ref="A81:J81"/>
-    <mergeCell ref="A82:J82"/>
-    <mergeCell ref="A83:J83"/>
-    <mergeCell ref="A84:J84"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A54:J54"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="A46:J46"/>
+    <mergeCell ref="A47:J47"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="A52:J52"/>
+    <mergeCell ref="A53:J53"/>
+    <mergeCell ref="A66:J66"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="A56:J56"/>
+    <mergeCell ref="A57:J57"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="A59:J59"/>
+    <mergeCell ref="A60:J60"/>
+    <mergeCell ref="A61:J61"/>
+    <mergeCell ref="A62:J62"/>
+    <mergeCell ref="A63:J63"/>
+    <mergeCell ref="A64:J64"/>
+    <mergeCell ref="A65:J65"/>
     <mergeCell ref="A78:J78"/>
     <mergeCell ref="A67:J67"/>
     <mergeCell ref="A68:J68"/>
@@ -5558,60 +5672,16 @@
     <mergeCell ref="A75:J75"/>
     <mergeCell ref="A76:J76"/>
     <mergeCell ref="A77:J77"/>
-    <mergeCell ref="A66:J66"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="A56:J56"/>
-    <mergeCell ref="A57:J57"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="A59:J59"/>
-    <mergeCell ref="A60:J60"/>
-    <mergeCell ref="A61:J61"/>
-    <mergeCell ref="A62:J62"/>
-    <mergeCell ref="A63:J63"/>
-    <mergeCell ref="A64:J64"/>
-    <mergeCell ref="A65:J65"/>
-    <mergeCell ref="A54:J54"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="A46:J46"/>
-    <mergeCell ref="A47:J47"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="A49:J49"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="A52:J52"/>
-    <mergeCell ref="A53:J53"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A85:J85"/>
+    <mergeCell ref="A86:J86"/>
+    <mergeCell ref="A87:J87"/>
+    <mergeCell ref="A88:J88"/>
+    <mergeCell ref="A79:J79"/>
+    <mergeCell ref="A80:J80"/>
+    <mergeCell ref="A81:J81"/>
+    <mergeCell ref="A82:J82"/>
+    <mergeCell ref="A83:J83"/>
+    <mergeCell ref="A84:J84"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
